--- a/data/countries.xlsx
+++ b/data/countries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8039F0EE-749B-4074-913C-DF292CB7D537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918BE98C-0CF4-4A5D-808E-AFA9CC3091A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,14 +431,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:R121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q116" sqref="Q116"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L139" sqref="L139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -1865,6 +1865,69 @@
         <v>45627</v>
       </c>
     </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>45658</v>
+      </c>
+      <c r="E110" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>45992</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1875,30 +1938,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FileSizeOrChildItemCount xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">17 KB</FileSizeOrChildItemCount>
-    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2028-11-30T23:00:00+00:00</_dlc_ExpireDate>
-    <TaxCatchAll xmlns="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
-    <DocumentType xmlns="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4">1</DocumentType>
-    <TaxKeywordTaxHTField xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D4181E9E5D52F4C9586F49BFE5EE298" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a7a4b3985722b9877beb0be694fbd58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4" xmlns:ns3="d92fc194-eb53-4f7a-b45f-993e54cb3c65" xmlns:ns4="f191ad30-9ade-4f0c-b78e-cf30469879ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="751d83e966f247b9feaf745e5d14cfa5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2089,34 +2128,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ECEC803-CE3A-41AA-8A6B-E3884C13B2B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d92fc194-eb53-4f7a-b45f-993e54cb3c65"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FileSizeOrChildItemCount xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">17 KB</FileSizeOrChildItemCount>
+    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2028-11-30T23:00:00+00:00</_dlc_ExpireDate>
+    <TaxCatchAll xmlns="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
+    <DocumentType xmlns="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4">1</DocumentType>
+    <TaxKeywordTaxHTField xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CDF0CD2-A3B5-41A6-B6D3-1EA02F2B6377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2135,4 +2171,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ECEC803-CE3A-41AA-8A6B-E3884C13B2B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d92fc194-eb53-4f7a-b45f-993e54cb3c65"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/countries.xlsx
+++ b/data/countries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918BE98C-0CF4-4A5D-808E-AFA9CC3091A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3283D7-30CE-4D7B-B417-8F9AD4B7F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,11 +434,11 @@
   <dimension ref="A1:R121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L139" sqref="L139"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -1883,47 +1883,53 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>45748</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E113" s="3">
+        <v>3</v>
+      </c>
+      <c r="L113" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>45778</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>45809</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>45839</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>45870</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>45901</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>45931</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>45962</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>45992</v>
       </c>
@@ -1938,6 +1944,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D4181E9E5D52F4C9586F49BFE5EE298" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a7a4b3985722b9877beb0be694fbd58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4" xmlns:ns3="d92fc194-eb53-4f7a-b45f-993e54cb3c65" xmlns:ns4="f191ad30-9ade-4f0c-b78e-cf30469879ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="751d83e966f247b9feaf745e5d14cfa5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2128,15 +2143,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2153,6 +2159,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CDF0CD2-A3B5-41A6-B6D3-1EA02F2B6377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2169,14 +2183,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/countries.xlsx
+++ b/data/countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3283D7-30CE-4D7B-B417-8F9AD4B7F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1509CEA9-94A6-4054-A6CB-5D057472B9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M113" sqref="M113"/>
+      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1780,9 @@
       <c r="A102" s="4">
         <v>45413</v>
       </c>
-      <c r="G102" s="3"/>
+      <c r="G102" s="3">
+        <v>5</v>
+      </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -1944,15 +1946,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D4181E9E5D52F4C9586F49BFE5EE298" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a7a4b3985722b9877beb0be694fbd58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4" xmlns:ns3="d92fc194-eb53-4f7a-b45f-993e54cb3c65" xmlns:ns4="f191ad30-9ade-4f0c-b78e-cf30469879ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="751d83e966f247b9feaf745e5d14cfa5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2143,6 +2136,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2159,14 +2161,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CDF0CD2-A3B5-41A6-B6D3-1EA02F2B6377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2183,6 +2177,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/countries.xlsx
+++ b/data/countries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1509CEA9-94A6-4054-A6CB-5D057472B9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A70913E-97EF-4B73-824E-302B0215CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>France</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,31 +434,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R121"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N115" sqref="N115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.26953125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -495,14 +498,17 @@
       <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>42370</v>
       </c>
@@ -510,17 +516,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>42401</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>42430</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>42461</v>
       </c>
@@ -531,12 +537,13 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="1">
+      <c r="N5" s="3"/>
+      <c r="O5" s="1">
         <v>23</v>
       </c>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>42491</v>
       </c>
@@ -550,12 +557,13 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="1">
+      <c r="N6" s="3"/>
+      <c r="O6" s="1">
         <v>80</v>
       </c>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>42522</v>
       </c>
@@ -566,12 +574,13 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="1">
+      <c r="N7" s="3"/>
+      <c r="O7" s="1">
         <v>23.19</v>
       </c>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>42552</v>
       </c>
@@ -588,12 +597,13 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="1">
+      <c r="N8" s="3"/>
+      <c r="O8" s="1">
         <v>81.67</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>42583</v>
       </c>
@@ -607,12 +617,13 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="1">
+      <c r="N9" s="3"/>
+      <c r="O9" s="1">
         <v>103.91</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>42614</v>
       </c>
@@ -623,12 +634,13 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="1">
+      <c r="N10" s="3"/>
+      <c r="O10" s="1">
         <v>10</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>42644</v>
       </c>
@@ -639,12 +651,13 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="1">
+      <c r="N11" s="3"/>
+      <c r="O11" s="1">
         <v>10</v>
       </c>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>42675</v>
       </c>
@@ -661,12 +674,13 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="1">
+      <c r="N12" s="3"/>
+      <c r="O12" s="1">
         <v>80</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>42705</v>
       </c>
@@ -680,15 +694,16 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="1">
+      <c r="N13" s="3"/>
+      <c r="O13" s="1">
         <v>80</v>
       </c>
-      <c r="O13" s="1">
-        <f>AVERAGE(N2:N13)</f>
+      <c r="P13" s="1">
+        <f>AVERAGE(O2:O13)</f>
         <v>54.641111111111108</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>42736</v>
       </c>
@@ -702,12 +717,13 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="1">
+      <c r="N14" s="3"/>
+      <c r="O14" s="1">
         <v>23.65</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>42767</v>
       </c>
@@ -718,12 +734,13 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="1">
+      <c r="N15" s="3"/>
+      <c r="O15" s="1">
         <v>10</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>42795</v>
       </c>
@@ -734,12 +751,13 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="1">
+      <c r="N16" s="3"/>
+      <c r="O16" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>42826</v>
       </c>
@@ -750,12 +768,13 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="1">
+      <c r="N17" s="3"/>
+      <c r="O17" s="1">
         <v>10.83</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>42856</v>
       </c>
@@ -772,12 +791,13 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="1">
+      <c r="N18" s="3"/>
+      <c r="O18" s="1">
         <v>82.91</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>42887</v>
       </c>
@@ -791,12 +811,13 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="1">
+      <c r="N19" s="3"/>
+      <c r="O19" s="1">
         <v>82.28</v>
       </c>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>42917</v>
       </c>
@@ -810,12 +831,13 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="1">
+      <c r="N20" s="3"/>
+      <c r="O20" s="1">
         <v>82.19</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>42948</v>
       </c>
@@ -828,12 +850,13 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="1">
+      <c r="N21" s="3"/>
+      <c r="O21" s="1">
         <v>120.6</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>42979</v>
       </c>
@@ -847,12 +870,13 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="1">
+      <c r="N22" s="3"/>
+      <c r="O22" s="1">
         <v>65.83</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>43009</v>
       </c>
@@ -869,12 +893,13 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="1">
+      <c r="N23" s="3"/>
+      <c r="O23" s="1">
         <v>66.66</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>43040</v>
       </c>
@@ -888,12 +913,13 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="1">
+      <c r="N24" s="3"/>
+      <c r="O24" s="1">
         <v>23</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>43070</v>
       </c>
@@ -907,15 +933,16 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="1">
+      <c r="N25" s="3"/>
+      <c r="O25" s="1">
         <v>23</v>
       </c>
-      <c r="O25" s="1">
-        <f>AVERAGE(N14:N25)</f>
+      <c r="P25" s="1">
+        <f>AVERAGE(O14:O25)</f>
         <v>50.095833333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>43101</v>
       </c>
@@ -929,12 +956,13 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="1">
+      <c r="N26" s="3"/>
+      <c r="O26" s="1">
         <v>65</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>43132</v>
       </c>
@@ -945,12 +973,13 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="1">
+      <c r="N27" s="3"/>
+      <c r="O27" s="1">
         <v>24.56</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>43160</v>
       </c>
@@ -967,12 +996,13 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="1">
+      <c r="N28" s="3"/>
+      <c r="O28" s="1">
         <v>110.86</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>43191</v>
       </c>
@@ -983,58 +1013,59 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="1">
+      <c r="N29" s="3"/>
+      <c r="O29" s="1">
         <v>10</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>43221</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>43252</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>126.33</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>43282</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>68.010000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>43313</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>43344</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>43374</v>
       </c>
@@ -1044,86 +1075,86 @@
       <c r="F35" s="3">
         <v>3</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>81.7</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>43405</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>43435</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <v>8.5</v>
       </c>
-      <c r="O37" s="1">
-        <f>AVERAGE(N26:N37)</f>
+      <c r="P37" s="1">
+        <f>AVERAGE(O26:O37)</f>
         <v>48.080000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>43466</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>43497</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <v>19.5</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>43525</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <v>19.5</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>43556</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>43586</v>
       </c>
       <c r="C42" s="3">
         <v>3</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>43617</v>
       </c>
@@ -1136,11 +1167,11 @@
       <c r="H43" s="3">
         <v>4</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <v>89.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43647</v>
       </c>
@@ -1153,38 +1184,38 @@
       <c r="J44" s="2">
         <v>6</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <v>101.03</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>43678</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>43709</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <v>18.5</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>43739</v>
       </c>
       <c r="E47" s="3">
         <v>5</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <v>105.25</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>43770</v>
       </c>
@@ -1194,203 +1225,203 @@
       <c r="E48" s="3">
         <v>4</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <v>122.22</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>43800</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <v>8.5</v>
       </c>
-      <c r="O49" s="1">
-        <f>AVERAGE(N38:N49)</f>
+      <c r="P49" s="1">
+        <f>AVERAGE(O38:O49)</f>
         <v>54.81666666666667</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>43831</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <v>19.5</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>43862</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>43891</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>43922</v>
       </c>
-      <c r="N53" s="1">
+      <c r="O53" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>43952</v>
       </c>
-      <c r="N54" s="1">
+      <c r="O54" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>43983</v>
       </c>
-      <c r="N55" s="1">
+      <c r="O55" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>44013</v>
       </c>
-      <c r="N56" s="1">
+      <c r="O56" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>44044</v>
       </c>
-      <c r="N57" s="1">
+      <c r="O57" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>44075</v>
       </c>
-      <c r="N58" s="1">
+      <c r="O58" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>44105</v>
       </c>
-      <c r="N59" s="1">
+      <c r="O59" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>44136</v>
       </c>
-      <c r="N60" s="1">
+      <c r="O60" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>44166</v>
       </c>
-      <c r="N61" s="1">
+      <c r="O61" s="1">
         <v>20</v>
       </c>
-      <c r="O61" s="1">
-        <f>AVERAGE(N50:N61)</f>
+      <c r="P61" s="1">
+        <f>AVERAGE(O50:O61)</f>
         <v>24.041666666666668</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>44197</v>
       </c>
-      <c r="N62" s="1">
+      <c r="O62" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>44228</v>
       </c>
-      <c r="N63" s="1">
+      <c r="O63" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>44256</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>44287</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>44317</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>44348</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>44378</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>44409</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>44440</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>44470</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>44501</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>44531</v>
       </c>
-      <c r="N73" s="1">
+      <c r="O73" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>44562</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>44593</v>
       </c>
@@ -1398,22 +1429,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>44621</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>44652</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>44682</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>44713</v>
       </c>
@@ -1421,7 +1452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>44743</v>
       </c>
@@ -1429,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>44774</v>
       </c>
@@ -1437,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>44805</v>
       </c>
@@ -1445,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>44835</v>
       </c>
@@ -1453,7 +1484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>44866</v>
       </c>
@@ -1469,8 +1500,9 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84" s="3"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>44896</v>
       </c>
@@ -1486,8 +1518,9 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85" s="3"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>44927</v>
       </c>
@@ -1503,8 +1536,9 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86" s="3"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>44958</v>
       </c>
@@ -1523,8 +1557,9 @@
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87" s="3"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>44986</v>
       </c>
@@ -1542,8 +1577,9 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88" s="3"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>45017</v>
       </c>
@@ -1561,8 +1597,9 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89" s="3"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>45047</v>
       </c>
@@ -1578,8 +1615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>45078</v>
       </c>
@@ -1595,8 +1633,9 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91" s="3"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>45108</v>
       </c>
@@ -1612,8 +1651,9 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92" s="3"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>45139</v>
       </c>
@@ -1633,8 +1673,9 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93" s="3"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>45170</v>
       </c>
@@ -1650,8 +1691,9 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94" s="3"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>45200</v>
       </c>
@@ -1667,8 +1709,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>45231</v>
       </c>
@@ -1686,8 +1729,9 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S96" s="3"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>45261</v>
       </c>
@@ -1703,8 +1747,9 @@
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S97" s="3"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>45292</v>
       </c>
@@ -1720,8 +1765,9 @@
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S98" s="3"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>45323</v>
       </c>
@@ -1737,8 +1783,9 @@
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S99" s="3"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>45352</v>
       </c>
@@ -1754,8 +1801,9 @@
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S100" s="3"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>45383</v>
       </c>
@@ -1775,8 +1823,9 @@
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S101" s="3"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>45413</v>
       </c>
@@ -1794,8 +1843,9 @@
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S102" s="3"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>45444</v>
       </c>
@@ -1818,8 +1868,9 @@
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S103" s="3"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>45474</v>
       </c>
@@ -1835,13 +1886,14 @@
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S104" s="3"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>45505</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>45536</v>
       </c>
@@ -1849,7 +1901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>45566</v>
       </c>
@@ -1857,17 +1909,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>45597</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>45627</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>45658</v>
       </c>
@@ -1875,17 +1927,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>45689</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>45717</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>45748</v>
       </c>
@@ -1896,42 +1948,45 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>45778</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N114" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>45809</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>45839</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>45870</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>45901</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>45931</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>45962</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>45992</v>
       </c>
@@ -1940,12 +1995,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="O25 O49 O13" formulaRange="1"/>
+    <ignoredError sqref="P25 P49 P13" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D4181E9E5D52F4C9586F49BFE5EE298" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a7a4b3985722b9877beb0be694fbd58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4" xmlns:ns3="d92fc194-eb53-4f7a-b45f-993e54cb3c65" xmlns:ns4="f191ad30-9ade-4f0c-b78e-cf30469879ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="751d83e966f247b9feaf745e5d14cfa5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2136,15 +2200,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2161,6 +2216,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CDF0CD2-A3B5-41A6-B6D3-1EA02F2B6377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2177,14 +2240,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/countries.xlsx
+++ b/data/countries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A70913E-97EF-4B73-824E-302B0215CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B746C74-D8C6-465A-8573-3867731A7311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N115" sqref="N115"/>
+      <selection pane="bottomLeft" activeCell="J120" sqref="J120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1975,15 +1975,24 @@
       <c r="A118" s="4">
         <v>45901</v>
       </c>
+      <c r="J118" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>45931</v>
       </c>
+      <c r="J119" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>45962</v>
+      </c>
+      <c r="E120" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
@@ -2001,12 +2010,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FileSizeOrChildItemCount xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">17 KB</FileSizeOrChildItemCount>
+    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2028-11-30T23:00:00+00:00</_dlc_ExpireDate>
+    <TaxCatchAll xmlns="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
+    <DocumentType xmlns="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4">1</DocumentType>
+    <TaxKeywordTaxHTField xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2201,24 +2216,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FileSizeOrChildItemCount xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">17 KB</FileSizeOrChildItemCount>
-    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2028-11-30T23:00:00+00:00</_dlc_ExpireDate>
-    <TaxCatchAll xmlns="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
-    <DocumentType xmlns="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4">1</DocumentType>
-    <TaxKeywordTaxHTField xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ECEC803-CE3A-41AA-8A6B-E3884C13B2B5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d92fc194-eb53-4f7a-b45f-993e54cb3c65"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2245,20 +2265,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ECEC803-CE3A-41AA-8A6B-E3884C13B2B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d92fc194-eb53-4f7a-b45f-993e54cb3c65"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>